--- a/mulige_roller.xlsx
+++ b/mulige_roller.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristianlovland/Documents/Revy 3/scenefordeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52FB9A7F-529D-6841-A5AB-82A3CC30AF28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42E3B12-0FBC-3C44-8405-37E7617D4322}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="460" windowWidth="24280" windowHeight="15540" xr2:uid="{5BFFE050-8E59-8A4F-A55A-FBAF55E6FE30}"/>
+    <workbookView xWindow="1260" yWindow="460" windowWidth="24340" windowHeight="15540" xr2:uid="{5BFFE050-8E59-8A4F-A55A-FBAF55E6FE30}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Jørn Peder</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Monster</t>
+  </si>
+  <si>
+    <t>Jeanette P</t>
   </si>
 </sst>
 </file>
@@ -441,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3461C4DB-6C2F-9949-8EFE-4569EA3D15BA}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -453,7 +456,7 @@
     <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,8 +469,11 @@
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -486,8 +492,11 @@
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -503,8 +512,11 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -523,8 +535,11 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -538,13 +553,16 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -560,8 +578,11 @@
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -577,8 +598,11 @@
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -597,8 +621,11 @@
       <c r="F8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="B9" t="s">
         <v>15</v>
       </c>
@@ -614,9 +641,12 @@
       <c r="F9">
         <v>0</v>
       </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:F9">
+  <conditionalFormatting sqref="C2:G9">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
